--- a/gto_variable_year_change.xlsx
+++ b/gto_variable_year_change.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://planetyouthehf-my.sharepoint.com/personal/steinunn_planetyouth_org/Documents/Planet Youth/youth_survey/gto_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{9A605EF4-C176-4AFE-B8C4-46F278137A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E673EC11-87BD-4AC2-B4E3-9771726F2C4F}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{9A605EF4-C176-4AFE-B8C4-46F278137A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{710BA304-3885-4D13-BAD8-A548685BC164}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{2602B163-F0CF-4C7A-B18D-E70346D00749}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>Group</t>
   </si>
@@ -59,7 +59,10 @@
     <t>Group 21-23 percentage change</t>
   </si>
   <si>
-    <t>Group 21-23 change count</t>
+    <t>Group 21-23 difference in the absolute number</t>
+  </si>
+  <si>
+    <t>Group 21-23 relative difference</t>
   </si>
   <si>
     <t>Group 22-24 1DC%</t>
@@ -80,7 +83,7 @@
     <t>parsup1</t>
   </si>
   <si>
-    <t>caring warmth</t>
+    <t>Cariño y calidez</t>
   </si>
   <si>
     <t>easy very easy</t>
@@ -89,9 +92,15 @@
     <t>parsup2</t>
   </si>
   <si>
+    <t>Una conversación sobre temas personales</t>
+  </si>
+  <si>
     <t>parsup3</t>
   </si>
   <si>
+    <t>Consejos sobre los estudios</t>
+  </si>
+  <si>
     <t>Substance</t>
   </si>
   <si>
@@ -110,16 +119,102 @@
     <t>drunk30days</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>smokelife</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-174.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fewer in Year 23 than expected based on Year 21 rates, the change 0.89% indicates there is almost no change</t>
+    </r>
+  </si>
+  <si>
     <t>smoke30days</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">difference in the absolute number: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The difference in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="1"/>
+      </rPr>
+      <t>absolute number of students</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> in Year 2023 compared to the expected count based on Year 2021's rate</t>
+    </r>
+  </si>
+  <si>
     <t>daysmoke</t>
   </si>
   <si>
     <t>eciglife</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">relative difference: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The relative difference in the rate of students between Year 2023 and Year 2021, expressed as a percentage of Year 2021's rate</t>
+    </r>
   </si>
   <si>
     <t>ecig30days</t>
@@ -141,7 +236,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +255,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +325,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -196,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -207,6 +355,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,28 +706,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05166C36-9670-42F0-9A41-11BE8D46B3E7}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="8" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="8" customWidth="1"/>
+    <col min="13" max="14" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" customHeight="1">
+    <row r="1" spans="1:14" ht="49.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -575,254 +742,377 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.94632099999999997</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.94023999999999996</v>
+      </c>
+      <c r="G2" s="7">
+        <v>-6.0800000000000003E-3</v>
+      </c>
+      <c r="H2" s="11">
+        <v>-174.10499999999999</v>
+      </c>
+      <c r="I2" s="7">
+        <v>8.1720000000000004E-3</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.93912499999999999</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.94679899999999995</v>
+      </c>
+      <c r="L2" s="7">
+        <v>7.6740000000000003E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <v>442.83960000000002</v>
+      </c>
+      <c r="N2" s="4">
+        <v>-6.43E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="E3" s="7">
+        <v>0.90060499999999999</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.89266900000000005</v>
+      </c>
+      <c r="G3" s="7">
+        <v>-7.9399999999999991E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-227.21100000000001</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1.874E-2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.87329900000000005</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.88966500000000004</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1.6365999999999999E-2</v>
+      </c>
+      <c r="M3" s="4">
+        <v>944.41250000000002</v>
+      </c>
+      <c r="N3" s="4">
+        <v>-8.8100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>16</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.96132600000000001</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.95211500000000004</v>
+      </c>
+      <c r="G4" s="7">
+        <v>-9.2099999999999994E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-263.71800000000002</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7.4400000000000004E-3</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.95042000000000004</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.95749099999999998</v>
+      </c>
+      <c r="L4" s="7">
+        <v>7.0720000000000002E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <v>408.06869999999998</v>
+      </c>
+      <c r="N4" s="4">
+        <v>-9.58E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>23</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="G9" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>23</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>23</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>23</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>23</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
